--- a/data_dash_schedule.xlsx
+++ b/data_dash_schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brennan\github\teaching\data_dashboard_class\course\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brennan\github\teaching\data_dashboard_class\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9241515B-2CE3-450D-ABC0-0CD1E89E788E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E92BC27-3F31-4495-A6CC-66738D3D3951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{F61C041A-E9AE-49DC-BE23-49AB2B0A15C4}"/>
+    <workbookView xWindow="1710" yWindow="1725" windowWidth="28725" windowHeight="15405" xr2:uid="{F61C041A-E9AE-49DC-BE23-49AB2B0A15C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -126,7 +126,7 @@
     <t xml:space="preserve">Course Introduction </t>
   </si>
   <si>
-    <t>Working in GitHub</t>
+    <t>Getting Started with GitHub</t>
   </si>
 </sst>
 </file>
@@ -447,14 +447,14 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -777,7 +777,7 @@
   <dimension ref="A1:D159"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,11 +789,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
       <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -867,7 +867,7 @@
         <v>45308</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C7" s="4">
         <v>3</v>
@@ -881,7 +881,7 @@
         <v>45310</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="9">
         <v>4</v>
@@ -895,7 +895,7 @@
         <v>45313</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="3">
         <v>5</v>
@@ -909,7 +909,7 @@
         <v>45315</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="27">
         <v>7</v>
@@ -923,7 +923,7 @@
         <v>45317</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="27" t="s">
         <v>16</v>
@@ -937,9 +937,9 @@
         <v>45320</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="29" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="14">
@@ -951,7 +951,7 @@
         <v>45322</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="14">
@@ -963,7 +963,7 @@
         <v>45324</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="14">

--- a/data_dash_schedule.xlsx
+++ b/data_dash_schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brennan\github\teaching\data_dashboard_class\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brennan\github\teaching\data_dashboard_class\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E92BC27-3F31-4495-A6CC-66738D3D3951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18132E92-B58F-4B26-AB89-E64B7BBA4688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1710" yWindow="1725" windowWidth="28725" windowHeight="15405" xr2:uid="{F61C041A-E9AE-49DC-BE23-49AB2B0A15C4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{F61C041A-E9AE-49DC-BE23-49AB2B0A15C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -90,9 +90,6 @@
     <t>15-16</t>
   </si>
   <si>
-    <t>Team Building Day</t>
-  </si>
-  <si>
     <t>https://mastering-shiny.org/index.html</t>
   </si>
   <si>
@@ -127,6 +124,9 @@
   </si>
   <si>
     <t>Getting Started with GitHub</t>
+  </si>
+  <si>
+    <t>Bear Lake Panel Discussion</t>
   </si>
 </sst>
 </file>
@@ -777,7 +777,7 @@
   <dimension ref="A1:D159"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,7 +815,7 @@
         <v>45299</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="13">
@@ -827,7 +827,7 @@
         <v>45301</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -841,7 +841,7 @@
         <v>45303</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
@@ -867,11 +867,9 @@
         <v>45308</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="4">
-        <v>3</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C7" s="4"/>
       <c r="D7" s="14">
         <v>2</v>
       </c>
@@ -881,11 +879,9 @@
         <v>45310</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="9">
-        <v>4</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C8" s="9"/>
       <c r="D8" s="14">
         <v>2</v>
       </c>
@@ -895,10 +891,10 @@
         <v>45313</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="3">
-        <v>5</v>
+        <v>22</v>
+      </c>
+      <c r="C9" s="27">
+        <v>3</v>
       </c>
       <c r="D9" s="13">
         <v>3</v>
@@ -909,10 +905,10 @@
         <v>45315</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" s="27">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D10" s="13">
         <v>3</v>
@@ -923,10 +919,10 @@
         <v>45317</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>16</v>
+        <v>24</v>
+      </c>
+      <c r="C11" s="27">
+        <v>5</v>
       </c>
       <c r="D11" s="13">
         <v>3</v>
@@ -937,10 +933,10 @@
         <v>45320</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>17</v>
+        <v>25</v>
+      </c>
+      <c r="C12" s="29">
+        <v>7</v>
       </c>
       <c r="D12" s="14">
         <v>4</v>
@@ -951,9 +947,11 @@
         <v>45322</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>16</v>
+      </c>
       <c r="D13" s="14">
         <v>4</v>
       </c>
@@ -963,9 +961,11 @@
         <v>45324</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>17</v>
+      </c>
       <c r="D14" s="14">
         <v>4</v>
       </c>
@@ -1403,7 +1403,7 @@
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1412,7 +1412,7 @@
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
